--- a/medicine/Handicap/Belgique_aux_Jeux_paralympiques/Belgique_aux_Jeux_paralympiques.xlsx
+++ b/medicine/Handicap/Belgique_aux_Jeux_paralympiques/Belgique_aux_Jeux_paralympiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Belgique a participé pour la première fois aux Jeux paralympiques aux Jeux paralympiques d'été de 1960 à Rome. Il participe depuis cette date à tous les Jeux paralympiques d'été Jeux d'été de 2020 à Tokyo[1].
+La Belgique a participé pour la première fois aux Jeux paralympiques aux Jeux paralympiques d'été de 1960 à Rome. Il participe depuis cette date à tous les Jeux paralympiques d'été Jeux d'été de 2020 à Tokyo.
 </t>
         </is>
       </c>
@@ -512,12 +524,89 @@
           <t>Bilan général</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sportifs belges ont gagné un total de 223 médailles paralympiques dont 72 en or, 75 en argent et 76 en bronze, ce qui place le pays à la 27e place du décompte des médailles des Jeux paralympiques. 221 des médailles belges ont été remportés aux Jeux d'été (72 en or, 75 en argent et 74 en bronze).
-Par année
-Graphiques des médailles
-Évolution du nombre de médailles d'or, d'argent et de bronze aux jeux paralympiques d'été de 1960 à 2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Belgique_aux_Jeux_paralympiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belgique_aux_Jeux_paralympiques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bilan général</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Par année</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Belgique_aux_Jeux_paralympiques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belgique_aux_Jeux_paralympiques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bilan général</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Par année</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Graphiques des médailles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Évolution du nombre de médailles d'or, d'argent et de bronze aux jeux paralympiques d'été de 1960 à 2020
 </t>
         </is>
       </c>
